--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2624222.426947478</v>
+        <v>2621204.836546542</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9330390.20263662</v>
+        <v>9330390.202636618</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>363.9970016015409</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>301.0683539834542</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>61.75622389394801</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.3314971819018</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,7 +896,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>111.0772899118775</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>383.7414287458036</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>111.8045191520766</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853697</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,19 +1096,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>9.27559683049722</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>60.46179076613028</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>16.82161760581793</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,19 +1178,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481165</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250817</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229329</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,25 +1294,25 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>52.108440591863</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>144.1808171872104</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1333,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1379,16 +1379,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113188</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>143.3158222056571</v>
+        <v>66.14085215535448</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1622,7 +1622,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
         <v>81.77913505274071</v>
@@ -1658,7 +1658,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1768,19 +1768,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>102.3715833422267</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>174.7430637258776</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1844,10 +1844,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710094</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>231.5887287380121</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>108.6299016415616</v>
       </c>
     </row>
     <row r="20">
@@ -2138,7 +2138,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>115.5269768002176</v>
       </c>
     </row>
     <row r="23">
@@ -2333,7 +2333,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H23" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
         <v>81.77913505274074</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>90.77242436236558</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>255.3303665522262</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2612,7 +2612,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>82.98087047042618</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>94.73473651412912</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2995,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>60.89488152167838</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>72.76043038243009</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,13 +3038,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
@@ -3241,16 +3241,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151921</v>
+        <v>67.96065118322453</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>115.5269768002183</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T40" t="n">
-        <v>96.84207451769373</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722631</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274074</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123.457602607491</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>122.6519788371599</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4138,22 +4138,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>57.64843562452403</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.01585011841316</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4192,16 +4192,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.203741822952</v>
+        <v>1882.054803223514</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.241224882541</v>
+        <v>1513.092286283102</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.241224882541</v>
+        <v>1154.826587676352</v>
       </c>
       <c r="E2" t="n">
-        <v>1320.241224882541</v>
+        <v>769.0383350781076</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>358.0524302885</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4331,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X2" t="n">
-        <v>2465.942913862886</v>
+        <v>2268.654643287636</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.803581887074</v>
+        <v>2268.654643287636</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4398,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4407,31 +4407,31 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="C4" t="n">
-        <v>204.0596212327002</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406185</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406185</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="T4" t="n">
-        <v>579.9823256406185</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="U4" t="n">
-        <v>579.9823256406185</v>
+        <v>665.7489600711332</v>
       </c>
       <c r="V4" t="n">
-        <v>579.9823256406185</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="W4" t="n">
-        <v>579.9823256406185</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="X4" t="n">
-        <v>579.9823256406185</v>
+        <v>411.0644718652463</v>
       </c>
       <c r="Y4" t="n">
-        <v>385.7080860629399</v>
+        <v>190.2718927217162</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1739.14592865605</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1739.14592865605</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1380.8802300493</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>995.0919774510553</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>584.1060726614478</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G5" t="n">
-        <v>166.1422645596347</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H5" t="n">
-        <v>166.1422645596347</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.514423990286</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.514423990286</v>
+        <v>2366.08620367465</v>
       </c>
       <c r="W5" t="n">
-        <v>2125.745768720172</v>
+        <v>2366.08620367465</v>
       </c>
       <c r="X5" t="n">
-        <v>2125.745768720172</v>
+        <v>2366.08620367465</v>
       </c>
       <c r="Y5" t="n">
-        <v>2125.745768720172</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4635,34 +4635,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2643.317569050019</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>99.59950625323009</v>
+        <v>507.3364050629039</v>
       </c>
       <c r="C7" t="n">
-        <v>99.59950625323009</v>
+        <v>507.3364050629039</v>
       </c>
       <c r="D7" t="n">
-        <v>99.59950625323009</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>99.59950625323009</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323009</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064347</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600566</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942406</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124033</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810051</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U7" t="n">
-        <v>99.59950625323009</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V7" t="n">
-        <v>99.59950625323009</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W7" t="n">
-        <v>99.59950625323009</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X7" t="n">
-        <v>99.59950625323009</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y7" t="n">
-        <v>99.59950625323009</v>
+        <v>507.3364050629039</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1053.350203651865</v>
+        <v>863.1126181035233</v>
       </c>
       <c r="C8" t="n">
-        <v>1053.350203651865</v>
+        <v>494.1501011631116</v>
       </c>
       <c r="D8" t="n">
-        <v>1053.350203651865</v>
+        <v>135.8844025563611</v>
       </c>
       <c r="E8" t="n">
-        <v>1053.350203651865</v>
+        <v>74.811886630977</v>
       </c>
       <c r="F8" t="n">
-        <v>642.3642988622576</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>224.4004907604444</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158871</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.723949158871</v>
+        <v>2366.086203674651</v>
       </c>
       <c r="W8" t="n">
-        <v>1816.955293888757</v>
+        <v>2013.317548404537</v>
       </c>
       <c r="X8" t="n">
-        <v>1443.489535627677</v>
+        <v>1639.851790143457</v>
       </c>
       <c r="Y8" t="n">
-        <v>1053.350203651865</v>
+        <v>1249.712458167645</v>
       </c>
     </row>
     <row r="9">
@@ -4872,25 +4872,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615929</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572649</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="C10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="D10" t="n">
-        <v>675.4941957298054</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="E10" t="n">
-        <v>527.5811021474123</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="F10" t="n">
-        <v>380.6911546495019</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>381.5656062325722</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036447</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036447</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036443</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658211</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502503</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594904</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064347</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064347</v>
+        <v>698.7120650600558</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064347</v>
+        <v>550.5654064942398</v>
       </c>
     </row>
     <row r="11">
@@ -5027,19 +5027,19 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805481</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.2170914602859</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514088</v>
@@ -5054,7 +5054,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5118,25 +5118,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636254</v>
+        <v>534.5429807341677</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028589</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.99626047346</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262966</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765243</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706375</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336769</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>1432.107328986838</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>1211.314749843308</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
@@ -5288,40 +5288,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
         <v>263.5382936126483</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>265.3924131404653</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="C16" t="n">
-        <v>265.3924131404653</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D16" t="n">
-        <v>265.3924131404653</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404653</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404653</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
@@ -5449,37 +5449,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119726</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.921157035278</v>
       </c>
       <c r="T16" t="n">
-        <v>1275.130855347409</v>
+        <v>964.1357418247842</v>
       </c>
       <c r="U16" t="n">
-        <v>986.0022165609669</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="V16" t="n">
-        <v>731.31772835508</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="W16" t="n">
-        <v>441.9005583181194</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="X16" t="n">
-        <v>265.3924131404653</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="Y16" t="n">
-        <v>265.3924131404653</v>
+        <v>860.7301020851612</v>
       </c>
     </row>
     <row r="17">
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,10 +5510,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514086</v>
@@ -5537,28 +5537,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
@@ -5610,10 +5610,10 @@
         <v>1837.916516526317</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>972.2646934632138</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C19" t="n">
-        <v>972.2646934632138</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D19" t="n">
-        <v>822.148054050878</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684849</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705745</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T19" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U19" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.841167119728</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W19" t="n">
-        <v>1153.913158293454</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X19" t="n">
-        <v>1153.913158293454</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y19" t="n">
-        <v>1153.913158293454</v>
+        <v>358.8683222506741</v>
       </c>
     </row>
     <row r="20">
@@ -5729,49 +5729,49 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5789,7 +5789,7 @@
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>549.5984374701562</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>891.4406401619851</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X22" t="n">
-        <v>318.009670603816</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5966,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5987,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6011,22 +6011,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,22 +6066,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1206.718781115523</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>245.130185042679</v>
+        <v>917.0640635030464</v>
       </c>
       <c r="C25" t="n">
-        <v>245.130185042679</v>
+        <v>917.0640635030464</v>
       </c>
       <c r="D25" t="n">
-        <v>245.130185042679</v>
+        <v>766.9474240907107</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>619.0343305083176</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
         <v>259.7851881688072</v>
@@ -6154,7 +6154,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6163,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U25" t="n">
-        <v>1017.221394183544</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V25" t="n">
-        <v>762.5369059776569</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W25" t="n">
-        <v>473.1197359406963</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X25" t="n">
-        <v>245.130185042679</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y25" t="n">
-        <v>245.130185042679</v>
+        <v>1098.712528333286</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6300,16 +6300,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277034</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341676</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
         <v>1247.466478653857</v>
@@ -6358,40 +6358,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>566.6879222525852</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C28" t="n">
-        <v>397.7517393246783</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D28" t="n">
-        <v>247.6350999123426</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="E28" t="n">
-        <v>247.6350999123426</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="F28" t="n">
-        <v>247.6350999123426</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="G28" t="n">
-        <v>247.6350999123426</v>
+        <v>331.4541609935811</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028587</v>
+        <v>181.0361525415244</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>1098.712528333287</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V28" t="n">
-        <v>844.0280401273998</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W28" t="n">
-        <v>844.0280401273998</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X28" t="n">
-        <v>844.0280401273998</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y28" t="n">
-        <v>748.3363870828249</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6528,34 +6528,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3570.689985294727</v>
+        <v>881.753191430675</v>
       </c>
       <c r="C31" t="n">
-        <v>3570.689985294727</v>
+        <v>712.8170085027681</v>
       </c>
       <c r="D31" t="n">
-        <v>3570.689985294727</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E31" t="n">
-        <v>3570.689985294727</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F31" t="n">
-        <v>3570.689985294727</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G31" t="n">
-        <v>3570.689985294727</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014292</v>
+        <v>1326.331185784699</v>
       </c>
       <c r="T31" t="n">
-        <v>4637.069157803799</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="U31" t="n">
-        <v>4563.573773579122</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="V31" t="n">
-        <v>4308.889285373235</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="W31" t="n">
-        <v>4019.472115336274</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="X31" t="n">
-        <v>3791.482564438257</v>
+        <v>1102.545770574205</v>
       </c>
       <c r="Y31" t="n">
-        <v>3570.689985294727</v>
+        <v>881.753191430675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>592.8217113586342</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1206.718781115523</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028589</v>
+        <v>4075.77845704364</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028589</v>
+        <v>4075.77845704364</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028589</v>
+        <v>3925.661817631304</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028589</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028589</v>
+        <v>3777.748724048911</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576118</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>4549.85945949167</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>4257.426921873879</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>4257.426921873879</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4257.426921873879</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028589</v>
+        <v>4257.426921873879</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028589</v>
+        <v>4257.426921873879</v>
       </c>
     </row>
     <row r="35">
@@ -6923,40 +6923,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>3158.47475800178</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>3465.794891281741</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>3795.657518945774</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>4075.197584164472</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>4565.745155698578</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014292</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7099,10 +7099,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,28 +7111,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7169,52 +7169,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7339,7 +7339,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7348,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T40" t="n">
-        <v>1090.100879744681</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003442</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7418,10 +7418,10 @@
         <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7433,28 +7433,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
         <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>584.7466045204288</v>
+        <v>221.1079791745888</v>
       </c>
       <c r="C43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471244</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974672</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980069</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585752</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557908</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119733</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.921157035286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247915</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247915</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536189046</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536189046</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4512536189046</v>
+        <v>441.900558318119</v>
       </c>
       <c r="Y43" t="n">
-        <v>709.4512536189046</v>
+        <v>221.1079791745888</v>
       </c>
     </row>
     <row r="44">
@@ -7643,13 +7643,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,16 +7661,16 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,28 +7722,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2361.490124716568</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4451.216557286038</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>4282.280374358131</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>4132.163734945795</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>3984.250641363402</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>3837.360693865492</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>3669.185372185312</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>3518.767363733255</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4860.854573014294</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>4860.854573014294</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>4632.865022116277</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>4632.865022116277</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8070,13 +8070,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747115</v>
+        <v>90.6414676374722</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8541,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451757</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>423.337678916511</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776741</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928316</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298194</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776744</v>
+        <v>277.6717966208057</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,13 +9477,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,7 +9720,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>288.409182577675</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9732,13 +9732,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9960,7 +9960,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.7003683229574</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9975,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10194,7 +10194,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>288.4091825776746</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>182.034074286794</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10680,13 +10680,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776735</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,31 +10899,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,10 +11373,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11388,16 +11388,16 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>176.7176547498452</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,25 +23464,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>82.39383318338008</v>
+        <v>159.5688032336827</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23656,19 +23656,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,25 +23698,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>183.8657690563506</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>50.96659166315959</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>54.93426959857888</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>109.9547517105331</v>
       </c>
     </row>
     <row r="20">
@@ -24178,7 +24178,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
     </row>
     <row r="23">
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>54.64862366056566</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>30.90698584635112</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>27.4383749938458</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>123.8499168379657</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24838,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24883,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>137.0259284619249</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>213.4769220161473</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338523</v>
+        <v>218.2767012153528</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25360,7 +25360,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>82.393833183385</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25594,16 +25594,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T40" t="n">
-        <v>124.7054865406955</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,10 +25783,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56.37437757444629</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>44.59484226146789</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25831,28 +25831,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,22 +26026,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>90.96703739368832</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
-        <v>51.40339534585881</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26080,16 +26080,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="H2" t="n">
         <v>586543.5896065631</v>
       </c>
       <c r="I2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="J2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="K2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="L2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="N2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="O2" t="n">
-        <v>586543.5896065632</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768967</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.094354047381785e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="D4" t="n">
-        <v>156359.7437417553</v>
+        <v>156774.9582512227</v>
       </c>
       <c r="E4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="F4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.66962143902</v>
       </c>
       <c r="G4" t="n">
-        <v>14711.50065430941</v>
+        <v>15045.66962143909</v>
       </c>
       <c r="H4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="K4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>14711.50065430942</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
-        <v>14711.50065430948</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>14711.50065430943</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.66962143904</v>
       </c>
       <c r="P4" t="n">
-        <v>14711.50065430949</v>
+        <v>15045.6696214391</v>
       </c>
     </row>
     <row r="5">
@@ -26470,34 +26470,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26506,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213405.3736214967</v>
+        <v>-213820.5881309637</v>
       </c>
       <c r="C6" t="n">
-        <v>376562.5055930479</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="D6" t="n">
-        <v>376562.5055930481</v>
+        <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45315.27347335944</v>
+        <v>-45649.44244048954</v>
       </c>
       <c r="F6" t="n">
-        <v>479844.763003537</v>
+        <v>479510.5940364074</v>
       </c>
       <c r="G6" t="n">
-        <v>479844.7630035369</v>
+        <v>479510.5940364071</v>
       </c>
       <c r="H6" t="n">
-        <v>479844.7630035369</v>
+        <v>479510.5940364075</v>
       </c>
       <c r="I6" t="n">
-        <v>479844.7630035367</v>
+        <v>479510.5940364074</v>
       </c>
       <c r="J6" t="n">
-        <v>303421.5438109441</v>
+        <v>303087.3748438143</v>
       </c>
       <c r="K6" t="n">
-        <v>479844.7630035368</v>
+        <v>479510.5940364072</v>
       </c>
       <c r="L6" t="n">
-        <v>479844.7630035367</v>
+        <v>479510.5940364072</v>
       </c>
       <c r="M6" t="n">
-        <v>345043.7477696997</v>
+        <v>344709.5788025701</v>
       </c>
       <c r="N6" t="n">
-        <v>479844.763003537</v>
+        <v>479510.5940364075</v>
       </c>
       <c r="O6" t="n">
-        <v>479844.7630035369</v>
+        <v>479510.5940364073</v>
       </c>
       <c r="P6" t="n">
-        <v>479844.7630035371</v>
+        <v>479510.5940364073</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170869</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541005</v>
@@ -26753,31 +26753,31 @@
         <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26790,22 +26790,22 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26826,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990182</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>42.87904414017055</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>112.7158160373407</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27442,10 +27442,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.90896808620985</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,7 +27594,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.25315617019299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27616,7 +27616,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>40.85402633298369</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481165</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>2.496509910249983</v>
       </c>
     </row>
     <row r="6">
@@ -27777,13 +27777,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>36.81095386613578</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,7 +27792,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>277.0062774114805</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>321.4685793061315</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>307.1011551585392</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,19 +27898,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28014,25 +28014,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>96.50703242634935</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>11.99007165458471</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853697</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28053,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491427</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.147926610385719e-12</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28287,7 +28287,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.147926610385719e-12</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -29764,7 +29764,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -30289,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>-8.463989355239118e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30648,7 +30648,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>5.090328158985358e-12</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J6" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J7" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5445733255447</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630671</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338306</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119867</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954668</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633803</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727384</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473557</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141114</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188919</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890691</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.7639270839648</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034985</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372667</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619156</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078614</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644446</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492006</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.1592209281358</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302244</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175849</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383805</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678012</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197225</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315612</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31759,16 +31759,16 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927188</v>
@@ -31777,19 +31777,19 @@
         <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
         <v>0.2670576580354894</v>
@@ -31835,7 +31835,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,19 +31844,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710957</v>
@@ -31865,13 +31865,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361493</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31929,19 +31929,19 @@
         <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336902</v>
@@ -31950,7 +31950,7 @@
         <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176652</v>
@@ -33421,31 +33421,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33494,31 +33494,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,7 +33585,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
         <v>229.1447054263751</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,7 +33649,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176652</v>
@@ -33658,31 +33658,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33731,31 +33731,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,7 +33822,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
         <v>229.1447054263751</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,7 +33886,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176652</v>
@@ -33895,31 +33895,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33968,31 +33968,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,7 +34059,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
         <v>229.1447054263751</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34360,7 +34360,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34369,31 +34369,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34442,31 +34442,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,7 +34533,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
@@ -34545,19 +34545,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535713</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435303</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530453</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116799</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770695</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262939</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355125</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245899</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713958</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873154</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,16 +35407,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081121</v>
@@ -35428,10 +35428,10 @@
         <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980131</v>
+        <v>756.532252314524</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411083</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091989</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118059</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221109</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081121</v>
@@ -35817,7 +35817,7 @@
         <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206008</v>
       </c>
       <c r="P16" t="n">
         <v>178.3836006118008</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091992</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,16 +36197,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,13 +36437,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>537.6668875336993</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
         <v>333.1945733980129</v>
@@ -36452,7 +36452,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,19 +36513,19 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
         <v>236.2373515206029</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734238</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507416</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,13 +36911,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>537.666887533699</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,7 +36926,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,19 +36987,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
         <v>236.2373515206029</v>
@@ -37008,7 +37008,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,13 +37148,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>332.6095128747332</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
@@ -37163,13 +37163,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,19 +37224,19 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
         <v>236.2373515206029</v>
@@ -37245,7 +37245,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,13 +37385,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
@@ -37400,13 +37400,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091983</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,19 +37461,19 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
         <v>236.2373515206029</v>
@@ -37482,7 +37482,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37546,25 +37546,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,19 +37698,19 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
         <v>236.2373515206029</v>
@@ -37719,7 +37719,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,13 +37859,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,13 +37874,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,19 +37935,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789776</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37956,7 +37956,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38020,25 +38020,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>264.7306875349194</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,19 +38172,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38193,7 +38193,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2621204.836546542</v>
+        <v>2696734.506211347</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -662,16 +664,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>301.0683539834542</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>37.19452077384757</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>94.63926978364054</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>61.75622389394801</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>102.6153813640008</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.7414287458036</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>111.8045191520766</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1114,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>171.9664138887667</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>321.5403236931101</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>60.46179076613028</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1297,22 +1299,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.1808171872104</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1348,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>234.4871813790491</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113188</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>76.59855080207008</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1582,16 +1584,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>66.14085215535448</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
         <v>251.078595249801</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -1819,7 +1821,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>102.3715833422267</v>
+        <v>144.425433495909</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>108.6299016415616</v>
+        <v>16.0070591458212</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2138,7 +2140,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>27.55584844405763</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>90.77242436236558</v>
+        <v>99.86151158594902</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2710,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -2731,7 +2733,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>82.98087047042618</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>52.25126848119491</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,22 +3000,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>60.89488152167838</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>80.83119524461006</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3038,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>45.37449962547134</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>67.96065118322453</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3421,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056515</v>
+        <v>45.87676998162862</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3505,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3569,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560528</v>
       </c>
     </row>
     <row r="39">
@@ -3658,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>71.5373381473641</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3746,13 +3748,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722631</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
@@ -3898,13 +3900,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>122.6519788371599</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>33.35146980185449</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4132,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>57.64843562452403</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>251.2854117097647</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1882.054803223514</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C2" t="n">
-        <v>1513.092286283102</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.826587676352</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E2" t="n">
-        <v>769.0383350781076</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>358.0524302885</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4331,16 +4333,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4361,19 +4363,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W2" t="n">
-        <v>2642.120401548716</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X2" t="n">
-        <v>2268.654643287636</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y2" t="n">
-        <v>2268.654643287636</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="3">
@@ -4398,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4416,10 +4418,10 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
         <v>2188.831293537797</v>
@@ -4462,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>665.7489600711332</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>665.7489600711332</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>411.0644718652463</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>411.0644718652463</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="X4" t="n">
-        <v>411.0644718652463</v>
+        <v>149.5382038240418</v>
       </c>
       <c r="Y4" t="n">
-        <v>190.2718927217162</v>
+        <v>149.5382038240418</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>891.446759560896</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>505.6585069626518</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177352</v>
+        <v>498.7130062134483</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036442</v>
+        <v>484.7896021520392</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036442</v>
+        <v>157.594882188042</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.08620367465</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.08620367465</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.08620367465</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>507.3364050629039</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C7" t="n">
-        <v>507.3364050629039</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V7" t="n">
-        <v>728.128984206434</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W7" t="n">
-        <v>728.128984206434</v>
+        <v>409.2948950230958</v>
       </c>
       <c r="X7" t="n">
-        <v>728.128984206434</v>
+        <v>235.5914466506042</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629039</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035233</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C8" t="n">
-        <v>494.1501011631116</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>135.8844025563611</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>74.811886630977</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036443</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733125</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674651</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404537</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143457</v>
+        <v>2478.514423990286</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167645</v>
+        <v>2088.375092014474</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>550.5654064942398</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>550.5654064942398</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>550.5654064942398</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>550.5654064942398</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>550.5654064942398</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>381.5656062325722</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658208</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600558</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942398</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>550.5654064942398</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>550.5654064942398</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>550.5654064942398</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>550.5654064942398</v>
+        <v>491.2732454397182</v>
       </c>
       <c r="W10" t="n">
-        <v>550.5654064942398</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X10" t="n">
-        <v>550.5654064942398</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y10" t="n">
-        <v>550.5654064942398</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805481</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515098</v>
@@ -5063,28 +5065,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5115,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277036</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341677</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665167</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1966.019627967826</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2486.320249703573</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1029.666285013068</v>
+        <v>623.2354609838692</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>454.2992780559623</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185178</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557903</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W13" t="n">
-        <v>1498.916270557903</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X13" t="n">
-        <v>1432.107328986838</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="Y13" t="n">
-        <v>1211.314749843308</v>
+        <v>623.2354609838692</v>
       </c>
     </row>
     <row r="14">
@@ -5273,16 +5275,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5300,10 +5302,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
@@ -5312,7 +5314,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571611</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636253</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1833.271529962218</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>860.7301020851612</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C16" t="n">
-        <v>860.7301020851612</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D16" t="n">
-        <v>710.6134626728254</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
         <v>415.8104215925219</v>
@@ -5428,58 +5430,58 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585745</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557901</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119726</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035278</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247842</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U16" t="n">
-        <v>860.7301020851612</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="V16" t="n">
-        <v>860.7301020851612</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="W16" t="n">
-        <v>860.7301020851612</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="X16" t="n">
-        <v>860.7301020851612</v>
+        <v>818.2514655662918</v>
       </c>
       <c r="Y16" t="n">
-        <v>860.7301020851612</v>
+        <v>597.4588864227617</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5494,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
@@ -5510,49 +5512,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571611</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636253</v>
+        <v>1163.495507227045</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1470.815640507006</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P18" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>358.8683222506741</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="C19" t="n">
-        <v>358.8683222506741</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="D19" t="n">
-        <v>208.7516828383384</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347409</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609669</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="W19" t="n">
-        <v>696.5850465240062</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="X19" t="n">
-        <v>468.5954956259889</v>
+        <v>758.0126656629491</v>
       </c>
       <c r="Y19" t="n">
-        <v>358.8683222506741</v>
+        <v>741.8439190510085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5741,34 +5743,34 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207831</v>
@@ -5777,25 +5779,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5838,19 +5840,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2032.925401907737</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2312.465467126434</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E22" t="n">
         <v>97.21709146028587</v>
@@ -5914,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1471.082080210369</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1247.296664999875</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609664</v>
+        <v>958.1680262134333</v>
       </c>
       <c r="V22" t="n">
-        <v>731.3177283550796</v>
+        <v>703.4835380075465</v>
       </c>
       <c r="W22" t="n">
-        <v>441.900558318119</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="X22" t="n">
-        <v>213.9110074201016</v>
+        <v>414.0663679705859</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>414.0663679705859</v>
       </c>
     </row>
     <row r="23">
@@ -5966,19 +5968,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5987,10 +5989,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6066,19 +6068,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>498.9056400965584</v>
       </c>
       <c r="L24" t="n">
-        <v>1206.718781115523</v>
+        <v>745.6707680030227</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395485</v>
+        <v>1514.038914395484</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059518</v>
+        <v>1843.901542059517</v>
       </c>
       <c r="O24" t="n">
         <v>2123.441607278215</v>
@@ -6121,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>917.0640635030464</v>
+        <v>514.9365816937667</v>
       </c>
       <c r="C25" t="n">
-        <v>917.0640635030464</v>
+        <v>346.0003987658598</v>
       </c>
       <c r="D25" t="n">
-        <v>766.9474240907107</v>
+        <v>346.0003987658598</v>
       </c>
       <c r="E25" t="n">
-        <v>619.0343305083176</v>
+        <v>198.0873051834667</v>
       </c>
       <c r="F25" t="n">
-        <v>527.3450129705745</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6163,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1387.841167119728</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U25" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="V25" t="n">
-        <v>1098.712528333286</v>
+        <v>986.0022165609671</v>
       </c>
       <c r="W25" t="n">
-        <v>1098.712528333286</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="X25" t="n">
-        <v>1098.712528333286</v>
+        <v>696.5850465240064</v>
       </c>
       <c r="Y25" t="n">
-        <v>1098.712528333286</v>
+        <v>696.5850465240064</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6208,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C27" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D27" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E27" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>3138.955990222747</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>3446.276123502708</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>3899.2354284722</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>4568.699189774859</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R27" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S27" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T27" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U27" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V27" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W27" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X27" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y27" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="28">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>668.5656656016674</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="C28" t="n">
-        <v>499.6294826737605</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="D28" t="n">
-        <v>499.6294826737605</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="E28" t="n">
-        <v>499.6294826737605</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F28" t="n">
-        <v>499.6294826737605</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>331.4541609935811</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>181.0361525415244</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>1298.996260473455</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>1298.996260473455</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="W28" t="n">
-        <v>1298.996260473455</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="X28" t="n">
-        <v>1071.006709575437</v>
+        <v>822.1480540508779</v>
       </c>
       <c r="Y28" t="n">
-        <v>850.2141304319072</v>
+        <v>822.1480540508779</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
         <v>488.1932370805469</v>
@@ -6458,16 +6460,16 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>2375.989236263798</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>2525.058920465858</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>2771.824048372322</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>3079.144181652284</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>3583.957287518663</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>4253.421048821322</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>4773.721670557069</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="31">
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>881.753191430675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>712.8170085027681</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6625,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6646,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1326.331185784699</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1102.545770574205</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>1102.545770574205</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V31" t="n">
-        <v>1102.545770574205</v>
+        <v>1017.064856369034</v>
       </c>
       <c r="W31" t="n">
-        <v>1102.545770574205</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X31" t="n">
-        <v>1102.545770574205</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y31" t="n">
-        <v>881.753191430675</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6689,28 +6691,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,10 +6721,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6774,31 +6776,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>177.1795914149472</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>326.249275617007</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>940.1463453738957</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4075.77845704364</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="C34" t="n">
-        <v>4075.77845704364</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="D34" t="n">
-        <v>3925.661817631304</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="E34" t="n">
-        <v>3777.748724048911</v>
+        <v>289.9398668627127</v>
       </c>
       <c r="F34" t="n">
-        <v>3777.748724048911</v>
+        <v>143.0499193648024</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368731</v>
+        <v>143.0499193648024</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4549.85945949167</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>4326.074044281177</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U34" t="n">
-        <v>4257.426921873879</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V34" t="n">
-        <v>4257.426921873879</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W34" t="n">
-        <v>4257.426921873879</v>
+        <v>920.3704617344999</v>
       </c>
       <c r="X34" t="n">
-        <v>4257.426921873879</v>
+        <v>692.3809108364826</v>
       </c>
       <c r="Y34" t="n">
-        <v>4257.426921873879</v>
+        <v>471.5883316929525</v>
       </c>
     </row>
     <row r="35">
@@ -6923,25 +6925,25 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6956,10 +6958,10 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7011,31 +7013,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>395.2468244550147</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7099,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7117,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336712</v>
+        <v>844.0280401273993</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>797.6878684287846</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>576.8952892852544</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7165,16 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823783</v>
       </c>
       <c r="K38" t="n">
         <v>889.2841917514079</v>
@@ -7193,28 +7195,28 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614725</v>
@@ -7248,28 +7250,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277033</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L39" t="n">
-        <v>534.5429807341674</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M39" t="n">
-        <v>1247.466478653857</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N39" t="n">
-        <v>2051.878056918008</v>
+        <v>1894.594339433115</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>2174.134404651812</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2379.156885434021</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7336,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1315.581229597138</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1060.896741391251</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,16 +7478,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7497,16 +7499,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1236.836466556557</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q42" t="n">
         <v>2612.943493278838</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>221.1079791745888</v>
+        <v>3492.843747251885</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>3492.843747251885</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>3492.843747251885</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916679</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380589</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N43" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>4749.779469576117</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>4549.859459491669</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>4326.074044281175</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>4036.945405494733</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>3782.260917288846</v>
       </c>
       <c r="W43" t="n">
-        <v>441.900558318119</v>
+        <v>3492.843747251885</v>
       </c>
       <c r="X43" t="n">
-        <v>441.900558318119</v>
+        <v>3492.843747251885</v>
       </c>
       <c r="Y43" t="n">
-        <v>221.1079791745888</v>
+        <v>3492.843747251885</v>
       </c>
     </row>
     <row r="44">
@@ -7637,22 +7639,22 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7713,16 +7715,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
@@ -7737,13 +7739,13 @@
         <v>841.863114014129</v>
       </c>
       <c r="N45" t="n">
-        <v>1171.725741678162</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O45" t="n">
-        <v>1841.189502980821</v>
+        <v>2315.738453580939</v>
       </c>
       <c r="P45" t="n">
-        <v>2361.490124716568</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>324.3840174432676</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="C46" t="n">
-        <v>155.4478345153607</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7810,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="V46" t="n">
-        <v>1244.231782352015</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="W46" t="n">
-        <v>954.8146123150548</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="Y46" t="n">
-        <v>506.0324822735073</v>
+        <v>710.3120936331045</v>
       </c>
     </row>
   </sheetData>
@@ -8064,13 +8066,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>274.4264991783518</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.6414676374722</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8775,22 +8777,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>423.337678916511</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>50.62661940943602</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
         <v>437.3469244119842</v>
@@ -9003,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>297.387723670335</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776744</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9185,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298194</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>43.65987261462539</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>277.6717966208057</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9419,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9489,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>277.6717966208064</v>
+        <v>19.14409596997092</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>213.2603911806615</v>
       </c>
       <c r="L24" t="n">
-        <v>288.409182577675</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9738,7 +9740,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,16 +9959,16 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>124.3400780863222</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10188,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10200,16 +10202,16 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>176.7176547498445</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445217</v>
@@ -10367,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>38.86002301949867</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720736</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599058</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10665,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>369.089388049373</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,16 +10904,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>409.700368322958</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10920,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>158.8724419039329</v>
       </c>
       <c r="R39" t="n">
         <v>34.78428385445217</v>
@@ -11066,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928333</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11145,19 +11147,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>8.406710013101758</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11318,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11385,16 +11387,16 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>15.83804904622852</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.7176547498452</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445217</v>
@@ -23413,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>72.01692221614228</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23470,16 +23472,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>159.5688032336827</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>183.8657690563506</v>
+        <v>141.8119189026683</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>109.9547517105331</v>
+        <v>202.5775942062736</v>
       </c>
     </row>
     <row r="20">
@@ -24127,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>170.3649615395456</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>103.0576765518772</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>54.64862366056566</v>
+        <v>45.55953643698223</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,7 +24426,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24598,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>27.4383749938458</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>199.8863748426331</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -24886,22 +24888,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>137.0259284619249</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>171.3064480792179</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>103.5393287420648</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25120,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>218.2767012153528</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25357,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338568</v>
+        <v>179.8328854074085</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>214.7000142512132</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25786,13 +25788,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>44.59484226146789</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>113.0824928447147</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26020,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>90.96703739368832</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>34.95194068881267</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="6">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="G2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="G2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="H2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065629</v>
@@ -26344,16 +26346,16 @@
         <v>586543.5896065629</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="N2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="O2" t="n">
         <v>586543.5896065632</v>
       </c>
-      <c r="O2" t="n">
-        <v>586543.589606563</v>
-      </c>
       <c r="P2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768967</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925926</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,25 +26420,25 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="D4" t="n">
-        <v>156774.9582512227</v>
+        <v>156774.9582512226</v>
       </c>
       <c r="E4" t="n">
-        <v>15045.66962143904</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.66962143902</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="G4" t="n">
+        <v>15045.6696214391</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15045.66962143911</v>
+      </c>
+      <c r="I4" t="n">
         <v>15045.66962143909</v>
-      </c>
-      <c r="H4" t="n">
-        <v>15045.6696214391</v>
-      </c>
-      <c r="I4" t="n">
-        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26451,10 +26453,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
+        <v>15045.66962143913</v>
+      </c>
+      <c r="O4" t="n">
         <v>15045.6696214391</v>
-      </c>
-      <c r="O4" t="n">
-        <v>15045.66962143904</v>
       </c>
       <c r="P4" t="n">
         <v>15045.6696214391</v>
@@ -26470,25 +26472,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26519,31 +26521,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309637</v>
+        <v>-213820.588130964</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835808</v>
+        <v>376147.2910835804</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835807</v>
+        <v>376147.2910835809</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048954</v>
+        <v>-45649.44244048867</v>
       </c>
       <c r="F6" t="n">
+        <v>479510.5940364071</v>
+      </c>
+      <c r="G6" t="n">
         <v>479510.5940364074</v>
       </c>
-      <c r="G6" t="n">
-        <v>479510.5940364071</v>
-      </c>
       <c r="H6" t="n">
-        <v>479510.5940364075</v>
+        <v>479510.5940364073</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364074</v>
+        <v>479510.5940364067</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438143</v>
+        <v>303087.3748438149</v>
       </c>
       <c r="K6" t="n">
         <v>479510.5940364072</v>
@@ -26552,16 +26554,16 @@
         <v>479510.5940364072</v>
       </c>
       <c r="M6" t="n">
-        <v>344709.5788025701</v>
+        <v>344709.5788025698</v>
       </c>
       <c r="N6" t="n">
+        <v>479510.5940364072</v>
+      </c>
+      <c r="O6" t="n">
         <v>479510.5940364075</v>
       </c>
-      <c r="O6" t="n">
-        <v>479510.5940364073</v>
-      </c>
       <c r="P6" t="n">
-        <v>479510.5940364073</v>
+        <v>479510.5940364072</v>
       </c>
     </row>
   </sheetData>
@@ -26719,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26790,13 +26792,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370141</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990182</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,16 +27384,16 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7158160373407</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27433,19 +27435,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>290.5577376962873</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27552,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>61.5316190581546</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>84.90896808620985</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>49.31593488086044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27676,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.496509910249983</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>36.81095386613578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>53.74324150027047</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>61.19351797037046</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>321.4685793061315</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28017,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>11.99007165458471</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28068,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>17.6504619447789</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -30289,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>7.71678812803845e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30472,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30642,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.487508428269215e-12</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31276,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,16 +34786,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>325.145920326212</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004663</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
-        <v>756.532252314524</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507419</v>
+        <v>138.6396521945101</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>607.8121007208013</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091992</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206008</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953156</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980131</v>
+        <v>376.8544460126382</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>484.7652115523304</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36139,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36206,22 +36208,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>484.7652115523311</v>
+        <v>226.2375109014956</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>363.8358297686008</v>
       </c>
       <c r="L24" t="n">
-        <v>537.6668875336993</v>
+        <v>249.2577049560245</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004665</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36677,16 +36679,16 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>457.5346514843351</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
@@ -36908,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
@@ -36920,16 +36922,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>509.9122281478575</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R32" t="n">
         <v>59.8253897034981</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>80.77020197440535</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303331</v>
@@ -37324,7 +37326,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
         <v>59.8253897034981</v>
@@ -37385,10 +37387,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>618.3470930053974</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
@@ -37397,16 +37399,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,16 +37624,16 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>720.1247453734243</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411082</v>
@@ -37640,7 +37642,7 @@
         <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>246.8854746890071</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221125</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37865,19 +37867,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>318.8310870635681</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R42" t="n">
         <v>10.73738595686865</v>
@@ -37938,7 +37940,7 @@
         <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299068</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38105,16 +38107,16 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O45" t="n">
         <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>222.9314639777532</v>
       </c>
       <c r="Q45" t="n">
-        <v>264.7306875349194</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2696734.506211347</v>
+        <v>2689717.491319636</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>177.4339484441091</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>37.19452077384757</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.63926978364054</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -873,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,16 +907,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>20.52965284373353</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>102.6153813640008</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>11.90975838011578</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>171.9664138887667</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>321.5403236931101</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.4422623037131</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,19 +1293,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>234.4871813790491</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710079</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>76.59855080207008</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>74.51231704717921</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,19 +1773,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,25 +1815,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>136.1896595705293</v>
       </c>
       <c r="U16" t="n">
-        <v>144.425433495909</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2061,16 +2061,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>16.0070591458212</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,13 +2241,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>27.55584844405763</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>93.70991968893334</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>99.86151158594902</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2715,10 +2715,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2727,10 +2727,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2763,19 +2763,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>52.25126848119491</v>
+        <v>75.13747633204051</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2997,19 +2997,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V31" t="n">
-        <v>80.83119524461006</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3198,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>45.37449962547134</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3486,10 +3486,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>45.87676998162862</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3571,7 +3571,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560528</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U40" t="n">
-        <v>71.5373381473641</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>33.35146980185449</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3963,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4140,16 +4140,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4191,16 +4191,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>251.2854117097647</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.8148076117928</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="C2" t="n">
-        <v>478.8522906713811</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="D2" t="n">
-        <v>478.8522906713811</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.788393182921</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W2" t="n">
-        <v>1998.019737912806</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.553979651726</v>
+        <v>1542.779601230298</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.414647675915</v>
+        <v>1542.779601230298</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>149.5382038240418</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>438.9553738610024</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>438.9553738610024</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="W4" t="n">
-        <v>149.5382038240418</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X4" t="n">
-        <v>149.5382038240418</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y4" t="n">
-        <v>149.5382038240418</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1249.712458167646</v>
+        <v>2079.343073798764</v>
       </c>
       <c r="C5" t="n">
-        <v>1249.712458167646</v>
+        <v>1710.380556858353</v>
       </c>
       <c r="D5" t="n">
-        <v>891.446759560896</v>
+        <v>1352.114858251602</v>
       </c>
       <c r="E5" t="n">
-        <v>505.6585069626518</v>
+        <v>966.3266056533578</v>
       </c>
       <c r="F5" t="n">
-        <v>498.7130062134483</v>
+        <v>555.3407008637503</v>
       </c>
       <c r="G5" t="n">
-        <v>484.7896021520392</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>157.594882188042</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036446</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018223</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>1639.851790143458</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="Y5" t="n">
-        <v>1249.712458167646</v>
+        <v>2465.942913862886</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>686.6820060902423</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036446</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="W7" t="n">
-        <v>409.2948950230958</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="X7" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>698.7120650600563</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990286</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2478.514423990286</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2478.514423990286</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2478.514423990286</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>2478.514423990286</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.375092014474</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>201.8560754027576</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>491.2732454397182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>201.8560754027576</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,19 +5020,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,22 +5041,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899128</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147081</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211721</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M12" t="n">
-        <v>966.6932390011339</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N12" t="n">
-        <v>1296.555866665167</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O12" t="n">
-        <v>1966.019627967826</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P12" t="n">
-        <v>2486.320249703573</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.2354609838692</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="C13" t="n">
-        <v>454.2992780559623</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
-        <v>376.9270045185178</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E13" t="n">
-        <v>376.9270045185178</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>376.9270045185178</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333286</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273993</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273993</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>844.0280401273993</v>
+        <v>879.5496456007323</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.2354609838692</v>
+        <v>879.5496456007323</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5278,19 +5278,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5320,10 +5320,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>901.674922584592</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M15" t="n">
-        <v>1503.408902298185</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N15" t="n">
-        <v>1833.271529962218</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2112.811595180915</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>415.8104215925219</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="C16" t="n">
-        <v>415.8104215925219</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247858</v>
+        <v>1250.275854422224</v>
       </c>
       <c r="U16" t="n">
-        <v>818.2514655662918</v>
+        <v>961.1472156357818</v>
       </c>
       <c r="V16" t="n">
-        <v>818.2514655662918</v>
+        <v>961.1472156357818</v>
       </c>
       <c r="W16" t="n">
-        <v>818.2514655662918</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="X16" t="n">
-        <v>818.2514655662918</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="Y16" t="n">
-        <v>597.4588864227617</v>
+        <v>671.7300455988212</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5500,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5557,10 +5557,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5594,22 +5594,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
         <v>97.21709146028584</v>
@@ -5700,25 +5700,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609664</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>758.0126656629491</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>741.8439190510085</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
@@ -5743,13 +5743,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823787</v>
@@ -5770,13 +5770,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231264</v>
@@ -5785,19 +5785,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5828,7 +5828,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5840,16 +5840,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>2032.925401907737</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>2312.465467126434</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1471.082080210369</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1247.296664999875</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>958.1680262134333</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>703.4835380075465</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>414.0663679705859</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>414.0663679705859</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,7 +6001,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6013,22 +6013,22 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,25 +6065,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>498.9056400965584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>745.6707680030227</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>1514.038914395484</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1843.901542059517</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>514.9365816937667</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="C25" t="n">
-        <v>346.0003987658598</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D25" t="n">
-        <v>346.0003987658598</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E25" t="n">
-        <v>198.0873051834667</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471196</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347409</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609671</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609671</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240064</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X25" t="n">
-        <v>696.5850465240064</v>
+        <v>303.4081673726145</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.5850465240064</v>
+        <v>303.4081673726145</v>
       </c>
     </row>
     <row r="26">
@@ -6205,34 +6205,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,31 +6244,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C27" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D27" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E27" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>3138.955990222747</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M27" t="n">
-        <v>3446.276123502708</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>3899.2354284722</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S27" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T27" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U27" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V27" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W27" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X27" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y27" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.1480540508779</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C28" t="n">
-        <v>822.1480540508779</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U28" t="n">
-        <v>874.927113122792</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V28" t="n">
-        <v>822.1480540508779</v>
+        <v>1112.024716295845</v>
       </c>
       <c r="W28" t="n">
-        <v>822.1480540508779</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="X28" t="n">
-        <v>822.1480540508779</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.1480540508779</v>
+        <v>822.6075462588844</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>2525.058920465858</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>2771.824048372322</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>3079.144181652284</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>3583.957287518663</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>4253.421048821322</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>1098.712528333286</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>1017.064856369034</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>727.647686332073</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>499.6581354340557</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6682,55 +6682,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>177.1795914149472</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>326.249275617007</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>940.1463453738957</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>289.9398668627127</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>143.0499193648024</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>143.0499193648024</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U34" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V34" t="n">
-        <v>1209.787631771461</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W34" t="n">
-        <v>920.3704617344999</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X34" t="n">
-        <v>692.3809108364826</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y34" t="n">
-        <v>471.5883316929525</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6928,40 +6928,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1332.091733170013</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1661.954360834046</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7119,28 +7119,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1387.841167119728</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1098.712528333286</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>844.0280401273993</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>844.0280401273993</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>797.6878684287846</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7165,25 +7165,25 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N38" t="n">
         <v>3183.709822619127</v>
@@ -7192,7 +7192,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7201,25 +7201,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>796.3635653766202</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1564.731711769082</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1894.594339433115</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2174.134404651812</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>879.2482765610114</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028584</v>
@@ -7356,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1315.581229597138</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1060.896741391251</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1060.896741391251</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1060.896741391251</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7393,55 +7393,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7478,16 +7478,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,19 +7499,19 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1236.836466556557</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>2041.248044820708</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2320.788110039405</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2525.810590821615</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3492.843747251885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3492.843747251885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3492.843747251885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380589</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4749.779469576117</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4549.859459491669</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
-        <v>4326.074044281175</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>4036.945405494733</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>3782.260917288846</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>3492.843747251885</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>3492.843747251885</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>3492.843747251885</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
@@ -7639,13 +7639,13 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
@@ -7660,19 +7660,19 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2315.738453580939</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U46" t="n">
-        <v>710.3120936331045</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V46" t="n">
-        <v>710.3120936331045</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W46" t="n">
-        <v>710.3120936331045</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8066,7 +8066,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>29.47535963978262</v>
       </c>
       <c r="Q12" t="n">
-        <v>50.62661940943602</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445217</v>
@@ -8938,7 +8938,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,16 +9005,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>297.387723670335</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>43.65987261462539</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
         <v>65.71641987298243</v>
@@ -9491,19 +9491,19 @@
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>19.14409596997092</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>213.2603911806615</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9734,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445213</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>124.3400780863222</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10190,10 +10190,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>176.7176547498445</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10369,7 +10369,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>38.86002301949867</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599059</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>369.089388049373</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10679,16 +10679,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10910,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11147,22 +11147,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>8.406710013101758</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119856</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11387,19 +11387,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>15.83804904622852</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>72.01692221614228</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23472,19 +23472,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>151.1973383418579</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,19 +23661,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,25 +23703,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>85.35790148785992</v>
       </c>
       <c r="U16" t="n">
-        <v>141.8119189026683</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,13 +23898,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23940,7 +23940,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>202.5775942062736</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,13 +24129,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>170.3649615395456</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>86.12206049300396</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>45.55953643698223</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>1.165290086646564e-12</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,19 +24651,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>199.8863748426331</v>
+        <v>177.0001669917875</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24885,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V31" t="n">
-        <v>171.3064480792179</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25086,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>103.5393287420648</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25128,13 +25128,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>103.0576765518774</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,10 +25374,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>179.8328854074085</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U40" t="n">
-        <v>214.7000142512132</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>113.0824928447147</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26028,16 +26028,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,16 +26079,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>34.95194068881267</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="G2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.589606563</v>
       </c>
       <c r="H2" t="n">
         <v>586543.589606563</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="K2" t="n">
         <v>586543.5896065629</v>
@@ -26349,13 +26349,13 @@
         <v>586543.5896065627</v>
       </c>
       <c r="N2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065627</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3.42310613632435e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925926</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26435,10 +26435,10 @@
         <v>15045.6696214391</v>
       </c>
       <c r="H4" t="n">
-        <v>15045.66962143911</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="I4" t="n">
-        <v>15045.66962143909</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="J4" t="n">
         <v>15045.6696214391</v>
@@ -26447,13 +26447,13 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143915</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
       </c>
       <c r="N4" t="n">
-        <v>15045.66962143913</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="O4" t="n">
         <v>15045.6696214391</v>
@@ -26475,43 +26475,43 @@
         <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="M5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="K5" t="n">
+      <c r="P5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="M5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="N5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871661</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.588130964</v>
+        <v>-213820.5881309636</v>
       </c>
       <c r="C6" t="n">
-        <v>376147.2910835804</v>
+        <v>376147.2910835808</v>
       </c>
       <c r="D6" t="n">
-        <v>376147.2910835809</v>
+        <v>376147.2910835807</v>
       </c>
       <c r="E6" t="n">
-        <v>-45649.44244048867</v>
+        <v>-46624.03370021031</v>
       </c>
       <c r="F6" t="n">
-        <v>479510.5940364071</v>
+        <v>478536.0027766858</v>
       </c>
       <c r="G6" t="n">
-        <v>479510.5940364074</v>
+        <v>478536.0027766856</v>
       </c>
       <c r="H6" t="n">
-        <v>479510.5940364073</v>
+        <v>478536.0027766856</v>
       </c>
       <c r="I6" t="n">
-        <v>479510.5940364067</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="J6" t="n">
-        <v>303087.3748438149</v>
+        <v>302112.7835840926</v>
       </c>
       <c r="K6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="L6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766854</v>
       </c>
       <c r="M6" t="n">
-        <v>344709.5788025698</v>
+        <v>343734.987542848</v>
       </c>
       <c r="N6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="O6" t="n">
-        <v>479510.5940364075</v>
+        <v>478536.0027766855</v>
       </c>
       <c r="P6" t="n">
-        <v>479510.5940364072</v>
+        <v>478536.0027766854</v>
       </c>
     </row>
   </sheetData>
@@ -26721,7 +26721,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541006</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="K3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541003</v>
-      </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>204.4964216281527</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>290.5577376962873</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27554,13 +27554,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>61.5316190581546</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27593,19 +27593,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>208.8197898846882</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>393.2545171770615</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>49.31593488086044</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,10 +27663,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>167.9222218018215</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>53.74324150027047</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>61.19351797037046</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>64.97345050525846</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,19 +28013,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28070,10 +28070,10 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>17.6504619447789</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30291,7 +30291,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>7.71678812803845e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30474,7 +30474,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -30644,7 +30644,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>-1.487508428269215e-12</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,16 +32463,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32481,7 +32481,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32490,7 +32490,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32499,7 +32499,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32551,7 +32551,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32560,10 +32560,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32578,10 +32578,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32642,7 +32642,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32654,16 +32654,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304442</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565521</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104652</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,43 +32785,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855528</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458551</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298632</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337673</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,19 +34786,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,7 +35497,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
@@ -35506,10 +35506,10 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q12" t="n">
-        <v>138.6396521945101</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>607.8121007208013</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>376.8544460126382</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,13 +36123,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36141,10 +36141,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,19 +36208,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>226.2375109014956</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36293,13 +36293,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>363.8358297686008</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004665</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980131</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411083</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556557</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>457.5346514843351</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>509.9122281478575</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37089,10 +37089,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>80.77020197440535</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.499584150206</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>618.3470930053974</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,19 +37630,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,22 +37867,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>318.8310870635681</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299068</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081133</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>222.9314639777532</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2689717.491319636</v>
+        <v>2694656.754168668</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>177.4339484441091</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>125.3709337301752</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,13 +715,13 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>20.52965284373353</v>
+        <v>249.9269488460521</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H6" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.90975838011578</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>28.51033041214411</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>123.2264323245092</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481161</v>
       </c>
       <c r="S8" t="n">
-        <v>109.4422623037131</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250815</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229326</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>59.66385641544537</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>43.31785343914049</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,10 +1542,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>155.8385935972304</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>74.51231704717921</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>101.2696377056984</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -1815,10 +1815,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>136.1896595705293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>199.8217265445596</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>93.70991968893334</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>24.40666873704782</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,25 +2760,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>75.13747633204051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3015,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>143.3158222056515</v>
       </c>
     </row>
     <row r="32">
@@ -3043,13 +3043,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>118.4898845065119</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>253.1488561805826</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>118.4898845065119</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>122.65197883716</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002176</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>7.101909464868018</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
@@ -4194,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1542.779601230298</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="C2" t="n">
-        <v>1542.779601230298</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="D2" t="n">
-        <v>1542.779601230298</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>605.4895974695378</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>598.5440967203343</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>180.5802886185212</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V2" t="n">
-        <v>1916.245359491378</v>
+        <v>1717.512263598976</v>
       </c>
       <c r="W2" t="n">
-        <v>1916.245359491378</v>
+        <v>1364.743608328862</v>
       </c>
       <c r="X2" t="n">
-        <v>1542.779601230298</v>
+        <v>991.2778500677821</v>
       </c>
       <c r="Y2" t="n">
-        <v>1542.779601230298</v>
+        <v>991.2778500677821</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2079.343073798764</v>
+        <v>2311.057514205147</v>
       </c>
       <c r="C5" t="n">
-        <v>1710.380556858353</v>
+        <v>1942.094997264735</v>
       </c>
       <c r="D5" t="n">
-        <v>1352.114858251602</v>
+        <v>1583.829298657985</v>
       </c>
       <c r="E5" t="n">
-        <v>966.3266056533578</v>
+        <v>1198.04104605974</v>
       </c>
       <c r="F5" t="n">
-        <v>555.3407008637503</v>
+        <v>787.0551412701327</v>
       </c>
       <c r="G5" t="n">
         <v>534.603677789272</v>
@@ -4564,55 +4564,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533145</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733133</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224084</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791254</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205147</v>
       </c>
       <c r="W5" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205147</v>
       </c>
       <c r="X5" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205147</v>
       </c>
       <c r="Y5" t="n">
-        <v>2465.942913862886</v>
+        <v>2311.057514205147</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M6" t="n">
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2231.815593035062</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>686.6820060902423</v>
+        <v>546.4805193761952</v>
       </c>
       <c r="C7" t="n">
-        <v>517.7458231623355</v>
+        <v>377.5443364482883</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>377.5443364482883</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>229.6312428658952</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>82.7412953679848</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036449</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N7" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="X7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Y7" t="n">
-        <v>698.7120650600563</v>
+        <v>728.1289842064349</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>443.7744035713887</v>
+        <v>554.3221432721102</v>
       </c>
       <c r="C8" t="n">
-        <v>74.81188663097703</v>
+        <v>185.3596263316985</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>185.3596263316985</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>185.3596263316985</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>178.414125582495</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224082</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977176</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018224</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="S8" t="n">
-        <v>2531.572661847995</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="T8" t="n">
-        <v>2531.572661847995</v>
+        <v>2642.120401548717</v>
       </c>
       <c r="U8" t="n">
-        <v>2277.810876486087</v>
+        <v>2388.358616186808</v>
       </c>
       <c r="V8" t="n">
-        <v>1946.747989142516</v>
+        <v>2057.295728843238</v>
       </c>
       <c r="W8" t="n">
-        <v>1593.979333872402</v>
+        <v>1704.527073573124</v>
       </c>
       <c r="X8" t="n">
-        <v>1220.513575611322</v>
+        <v>1331.061315312044</v>
       </c>
       <c r="Y8" t="n">
-        <v>830.3742436355105</v>
+        <v>940.921983336232</v>
       </c>
     </row>
     <row r="9">
@@ -4874,28 +4874,28 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.1903022614631</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571351</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014718</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="C10" t="n">
-        <v>667.8624625746712</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="D10" t="n">
-        <v>517.7458231623355</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="E10" t="n">
-        <v>369.8327295799424</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036448</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477912</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658212</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502504</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594906</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064349</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>456.3840257941343</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="11">
@@ -5038,52 +5038,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614725</v>
@@ -5117,25 +5117,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L12" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M12" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N12" t="n">
-        <v>1632.773754790662</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O12" t="n">
-        <v>2302.237516093321</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
         <v>2536.440602918915</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.5496456007323</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5235,16 +5235,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>1341.503549752619</v>
       </c>
       <c r="X13" t="n">
-        <v>879.5496456007323</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y13" t="n">
-        <v>879.5496456007323</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="14">
@@ -5254,37 +5254,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5305,25 +5305,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5357,22 +5357,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>233.7852434110091</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>644.6755122555218</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>891.4406401619858</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1198.760773441947</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1528.62340110598</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>671.7300455988212</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="C16" t="n">
-        <v>671.7300455988212</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="D16" t="n">
-        <v>671.7300455988212</v>
+        <v>507.0827848727882</v>
       </c>
       <c r="E16" t="n">
-        <v>523.8169520164281</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F16" t="n">
-        <v>376.9270045185177</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
         <v>208.7516828383384</v>
@@ -5463,25 +5463,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1250.275854422224</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>961.1472156357818</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V16" t="n">
-        <v>961.1472156357818</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W16" t="n">
-        <v>671.7300455988212</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="X16" t="n">
-        <v>671.7300455988212</v>
+        <v>609.3753482118775</v>
       </c>
       <c r="Y16" t="n">
-        <v>671.7300455988212</v>
+        <v>609.3753482118775</v>
       </c>
     </row>
     <row r="17">
@@ -5497,34 +5497,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
         <v>3183.709822619127</v>
@@ -5533,7 +5533,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,7 +5603,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N18" t="n">
         <v>1558.376451307619</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5934,28 +5934,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1186.00103929694</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>896.5838692599799</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5943183619626</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>447.8017392184324</v>
       </c>
     </row>
     <row r="23">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765186</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706318</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W25" t="n">
-        <v>531.3977182706318</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X25" t="n">
-        <v>303.4081673726145</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>303.4081673726145</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,37 +6202,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6244,34 +6244,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,28 +6293,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
         <v>1558.376451307619</v>
@@ -6323,10 +6323,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>822.6075462588844</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="C28" t="n">
-        <v>653.6713633309776</v>
+        <v>268.760239702689</v>
       </c>
       <c r="D28" t="n">
-        <v>503.5547239186418</v>
+        <v>268.760239702689</v>
       </c>
       <c r="E28" t="n">
-        <v>355.6416303362487</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1187.92115703528</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V28" t="n">
-        <v>1112.024716295845</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W28" t="n">
-        <v>822.6075462588844</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X28" t="n">
-        <v>822.6075462588844</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y28" t="n">
-        <v>822.6075462588844</v>
+        <v>437.6964226305959</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
@@ -6454,19 +6454,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6496,19 +6496,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6530,16 +6530,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
         <v>263.5382936126482</v>
@@ -6551,7 +6551,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N30" t="n">
         <v>1558.376451307619</v>
@@ -6560,10 +6560,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6654,19 +6654,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="32">
@@ -6679,31 +6679,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,28 +6767,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
         <v>1558.376451307619</v>
@@ -6797,10 +6797,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,22 +6888,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T34" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U34" t="n">
-        <v>1090.100879744681</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V34" t="n">
-        <v>835.416391538794</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W34" t="n">
-        <v>545.9992215018333</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X34" t="n">
-        <v>318.0096706038159</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,31 +6931,31 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7025,7 +7025,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
         <v>1558.376451307619</v>
@@ -7034,10 +7034,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7122,22 +7122,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1379.229518531123</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>1090.100879744681</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
         <v>97.21709146028584</v>
@@ -7174,25 +7174,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7210,16 +7210,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7262,7 +7262,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N39" t="n">
         <v>1558.376451307619</v>
@@ -7271,10 +7271,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7487,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7499,7 +7499,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7596,25 +7596,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1382.222354598087</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7639,40 +7639,40 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7724,7 +7724,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7745,10 +7745,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028587</v>
+        <v>272.5660590645743</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7830,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765186</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706318</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336712</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028587</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028587</v>
+        <v>454.2145238948141</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.029416914201</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>275.0442842992653</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270185</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,10 +8543,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.906554245176</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360576</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>297.2466435761031</v>
       </c>
       <c r="P12" t="n">
-        <v>29.47535963978262</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8935,10 +8935,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928327</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>96.03744927814714</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9023,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928327</v>
+        <v>449.5135334928326</v>
       </c>
       <c r="N29" t="n">
         <v>437.3469244119842</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10606,7 +10606,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599059</v>
+        <v>212.3149906599049</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,7 +11068,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928336</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119856</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208064</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23475,16 +23475,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>96.29904972659759</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>151.1973383418579</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>65.9771833929294</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>85.35790148785992</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>52.31591677926838</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>86.12206049300396</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24384,7 +24384,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24463,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.165290086646564e-12</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>122.0272939095213</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,25 +24648,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>177.0001669917875</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>75.26883114644329</v>
       </c>
     </row>
     <row r="32">
@@ -25080,7 +25080,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25128,10 +25128,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>103.0576765518774</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>33.08849621799479</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25362,10 +25362,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0576765518774</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25599,10 +25599,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>103.0576765518772</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,7 +25836,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338567</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>160.1449116337598</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>796315.9954062811</v>
+        <v>796315.9954062812</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>796315.9954062813</v>
+        <v>796315.9954062811</v>
       </c>
     </row>
     <row r="7">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>796315.9954062812</v>
+        <v>796315.9954062813</v>
       </c>
     </row>
     <row r="13">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
+        <v>615781.3273982126</v>
+      </c>
+      <c r="D2" t="n">
         <v>615781.3273982129</v>
       </c>
-      <c r="D2" t="n">
-        <v>615781.3273982127</v>
-      </c>
       <c r="E2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="F2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="J2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
+        <v>586543.5896065631</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.589606563</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.5896065629</v>
-      </c>
       <c r="M2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065631</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.092476549179992e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768957</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>156774.9582512226</v>
       </c>
       <c r="C4" t="n">
-        <v>156774.9582512226</v>
+        <v>156774.9582512225</v>
       </c>
       <c r="D4" t="n">
         <v>156774.9582512226</v>
@@ -26429,7 +26429,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="F4" t="n">
-        <v>15045.6696214391</v>
+        <v>15045.66962143916</v>
       </c>
       <c r="G4" t="n">
         <v>15045.6696214391</v>
@@ -26447,7 +26447,7 @@
         <v>15045.6696214391</v>
       </c>
       <c r="L4" t="n">
-        <v>15045.66962143915</v>
+        <v>15045.6696214391</v>
       </c>
       <c r="M4" t="n">
         <v>15045.6696214391</v>
@@ -26472,19 +26472,19 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.0780634095</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
         <v>91987.32594871664</v>
@@ -26493,19 +26493,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="K5" t="n">
         <v>91987.32594871661</v>
       </c>
-      <c r="K5" t="n">
-        <v>91987.32594871662</v>
-      </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-213820.5881309636</v>
+        <v>-213820.5881309638</v>
       </c>
       <c r="C6" t="n">
+        <v>376147.2910835802</v>
+      </c>
+      <c r="D6" t="n">
         <v>376147.2910835808</v>
       </c>
-      <c r="D6" t="n">
-        <v>376147.2910835807</v>
-      </c>
       <c r="E6" t="n">
-        <v>-46624.03370021031</v>
+        <v>-45746.90156646035</v>
       </c>
       <c r="F6" t="n">
-        <v>478536.0027766858</v>
+        <v>479413.134910435</v>
       </c>
       <c r="G6" t="n">
-        <v>478536.0027766856</v>
+        <v>479413.1349104348</v>
       </c>
       <c r="H6" t="n">
-        <v>478536.0027766856</v>
+        <v>479413.134910435</v>
       </c>
       <c r="I6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="J6" t="n">
-        <v>302112.7835840926</v>
+        <v>302989.9157178422</v>
       </c>
       <c r="K6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104352</v>
       </c>
       <c r="L6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="M6" t="n">
-        <v>343734.987542848</v>
+        <v>344612.1196765982</v>
       </c>
       <c r="N6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.134910435</v>
       </c>
       <c r="O6" t="n">
-        <v>478536.0027766855</v>
+        <v>479413.1349104351</v>
       </c>
       <c r="P6" t="n">
-        <v>478536.0027766854</v>
+        <v>479413.1349104351</v>
       </c>
     </row>
   </sheetData>
@@ -26740,19 +26740,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.743664217087</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
@@ -26761,25 +26761,25 @@
         <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545561</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26962,13 +26962,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370132</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27014,13 +27014,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990179</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990171</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4964216281527</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>198.551839034182</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27630,7 +27630,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>393.2545171770615</v>
+        <v>163.8572211747428</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>167.9222218018215</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>138.7994718469068</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27867,13 +27867,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.5577376962858</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>64.97345050525846</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>107.5829646831825</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853695</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491425</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974505</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
     </row>
     <row r="15">
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340047</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554473</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727437</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081579</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630672</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.647164540537</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338307</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119868</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954669</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044139</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633807</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727386</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.64752920647356</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141117</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188923</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890692</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396484</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478009</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983124</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923049</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479579</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034987</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131474</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372669</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619158</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078618</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644449</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492007</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813582</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302246</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246925</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917251</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175854</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383809</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678014</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701167</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695337</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197227</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315614</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,16 +31752,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31770,7 +31770,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31779,7 +31779,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31788,7 +31788,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,7 +31831,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31840,7 +31840,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31849,10 +31849,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31867,10 +31867,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31931,7 +31931,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,16 +33174,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33192,7 +33192,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33201,7 +33201,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33210,7 +33210,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33262,7 +33262,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33271,10 +33271,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>424.9599466855526</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33353,7 +33353,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33365,16 +33365,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,16 +33411,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33438,7 +33438,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33447,7 +33447,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33508,10 +33508,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33590,7 +33590,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33602,16 +33602,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855526</v>
@@ -33763,10 +33763,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -34000,10 +34000,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.58174042459</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.222741532893</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L7" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N7" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O7" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181312</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343421</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435304</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060968</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492239</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530454</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.93761631168</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898691</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713859</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>529.441326826294</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.163256083918</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735648</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.8110948137342</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713961</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535657</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458881</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873158</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35433,7 +35433,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>150.5754385879392</v>
@@ -35497,19 +35497,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>579.6103458172112</v>
       </c>
       <c r="P12" t="n">
-        <v>236.5687745713073</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,10 +35567,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35582,13 +35582,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,16 +35649,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
         <v>713.1546070951472</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>137.9476282330538</v>
       </c>
       <c r="K15" t="n">
         <v>415.0406756005178</v>
@@ -35734,16 +35734,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,16 +35971,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q18" t="n">
         <v>298.0903205209232</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,7 +36834,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
         <v>250.2141868799285</v>
@@ -37004,13 +37004,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37156,22 +37156,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
         <v>250.2141868799285</v>
@@ -37241,13 +37241,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37326,10 +37326,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502051</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37393,22 +37393,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37630,22 +37630,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221127</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,16 +38019,16 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081133</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
         <v>713.1546070951472</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,22 +38104,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523311</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
